--- a/ONCHO/Impact Assessments/Togo/2023 February/tg_oncho_stop_202304_3_elisa.xlsx
+++ b/ONCHO/Impact Assessments/Togo/2023 February/tg_oncho_stop_202304_3_elisa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\WHO\dsa-forms\ONCHO\Impact Assessments\Togo\2023 February\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0186A7A4-2914-45BA-9D18-A6FBB2CB514B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE2E9D46-9233-4DFD-B401-927FC4B11AC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1783" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1779" uniqueCount="480">
   <si>
     <t>type</t>
   </si>
@@ -1943,7 +1943,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -2246,11 +2246,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J441"/>
+  <dimension ref="A1:J440"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1:G68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A268" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A286" sqref="A286:XFD286"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -6688,15 +6688,15 @@
         <v>240</v>
       </c>
       <c r="B286" s="23" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C286" s="23" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D286" s="23"/>
       <c r="E286" s="23"/>
       <c r="F286" s="23" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
     </row>
     <row r="287" spans="1:6">
@@ -6704,10 +6704,10 @@
         <v>240</v>
       </c>
       <c r="B287" s="23" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C287" s="23" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D287" s="23"/>
       <c r="E287" s="23"/>
@@ -6720,10 +6720,10 @@
         <v>240</v>
       </c>
       <c r="B288" s="23" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C288" s="23" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D288" s="23"/>
       <c r="E288" s="23"/>
@@ -6736,10 +6736,10 @@
         <v>240</v>
       </c>
       <c r="B289" s="23" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C289" s="23" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D289" s="23"/>
       <c r="E289" s="23"/>
@@ -6752,15 +6752,15 @@
         <v>240</v>
       </c>
       <c r="B290" s="23" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C290" s="23" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D290" s="23"/>
       <c r="E290" s="23"/>
       <c r="F290" s="23" t="s">
-        <v>221</v>
+        <v>143</v>
       </c>
     </row>
     <row r="291" spans="1:6">
@@ -6768,10 +6768,10 @@
         <v>240</v>
       </c>
       <c r="B291" s="23" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C291" s="23" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D291" s="23"/>
       <c r="E291" s="23"/>
@@ -6784,10 +6784,10 @@
         <v>240</v>
       </c>
       <c r="B292" s="23" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C292" s="23" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D292" s="23"/>
       <c r="E292" s="23"/>
@@ -6800,10 +6800,10 @@
         <v>240</v>
       </c>
       <c r="B293" s="23" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C293" s="23" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D293" s="23"/>
       <c r="E293" s="23"/>
@@ -6816,10 +6816,10 @@
         <v>240</v>
       </c>
       <c r="B294" s="23" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C294" s="23" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D294" s="23"/>
       <c r="E294" s="23"/>
@@ -6832,10 +6832,10 @@
         <v>240</v>
       </c>
       <c r="B295" s="23" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C295" s="23" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D295" s="23"/>
       <c r="E295" s="23"/>
@@ -6848,10 +6848,10 @@
         <v>240</v>
       </c>
       <c r="B296" s="23" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C296" s="23" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D296" s="23"/>
       <c r="E296" s="23"/>
@@ -6864,15 +6864,15 @@
         <v>240</v>
       </c>
       <c r="B297" s="23" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C297" s="23" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D297" s="23"/>
       <c r="E297" s="23"/>
       <c r="F297" s="23" t="s">
-        <v>143</v>
+        <v>110</v>
       </c>
     </row>
     <row r="298" spans="1:6">
@@ -6880,15 +6880,15 @@
         <v>240</v>
       </c>
       <c r="B298" s="23" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C298" s="23" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D298" s="23"/>
       <c r="E298" s="23"/>
       <c r="F298" s="23" t="s">
-        <v>110</v>
+        <v>231</v>
       </c>
     </row>
     <row r="299" spans="1:6">
@@ -6896,15 +6896,15 @@
         <v>240</v>
       </c>
       <c r="B299" s="23" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C299" s="23" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D299" s="23"/>
       <c r="E299" s="23"/>
       <c r="F299" s="23" t="s">
-        <v>231</v>
+        <v>201</v>
       </c>
     </row>
     <row r="300" spans="1:6">
@@ -6912,10 +6912,10 @@
         <v>240</v>
       </c>
       <c r="B300" s="23" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C300" s="23" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D300" s="23"/>
       <c r="E300" s="23"/>
@@ -6928,10 +6928,10 @@
         <v>240</v>
       </c>
       <c r="B301" s="23" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C301" s="23" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D301" s="23"/>
       <c r="E301" s="23"/>
@@ -6944,15 +6944,15 @@
         <v>240</v>
       </c>
       <c r="B302" s="23" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C302" s="23" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D302" s="23"/>
       <c r="E302" s="23"/>
       <c r="F302" s="23" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
     </row>
     <row r="303" spans="1:6">
@@ -6960,10 +6960,10 @@
         <v>240</v>
       </c>
       <c r="B303" s="23" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C303" s="23" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D303" s="23"/>
       <c r="E303" s="23"/>
@@ -6976,10 +6976,10 @@
         <v>240</v>
       </c>
       <c r="B304" s="23" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C304" s="23" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D304" s="23"/>
       <c r="E304" s="23"/>
@@ -6992,10 +6992,10 @@
         <v>240</v>
       </c>
       <c r="B305" s="23" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C305" s="23" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D305" s="23"/>
       <c r="E305" s="23"/>
@@ -7008,15 +7008,15 @@
         <v>240</v>
       </c>
       <c r="B306" s="23" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C306" s="23" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D306" s="23"/>
       <c r="E306" s="23"/>
       <c r="F306" s="23" t="s">
-        <v>174</v>
+        <v>132</v>
       </c>
     </row>
     <row r="307" spans="1:6">
@@ -7024,10 +7024,10 @@
         <v>240</v>
       </c>
       <c r="B307" s="23" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C307" s="23" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D307" s="23"/>
       <c r="E307" s="23"/>
@@ -7040,15 +7040,15 @@
         <v>240</v>
       </c>
       <c r="B308" s="23" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C308" s="23" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D308" s="23"/>
       <c r="E308" s="23"/>
       <c r="F308" s="23" t="s">
-        <v>132</v>
+        <v>222</v>
       </c>
     </row>
     <row r="309" spans="1:6">
@@ -7056,10 +7056,10 @@
         <v>240</v>
       </c>
       <c r="B309" s="23" t="s">
-        <v>358</v>
+        <v>220</v>
       </c>
       <c r="C309" s="23" t="s">
-        <v>358</v>
+        <v>220</v>
       </c>
       <c r="D309" s="23"/>
       <c r="E309" s="23"/>
@@ -7072,10 +7072,10 @@
         <v>240</v>
       </c>
       <c r="B310" s="23" t="s">
-        <v>220</v>
+        <v>359</v>
       </c>
       <c r="C310" s="23" t="s">
-        <v>220</v>
+        <v>359</v>
       </c>
       <c r="D310" s="23"/>
       <c r="E310" s="23"/>
@@ -7088,15 +7088,15 @@
         <v>240</v>
       </c>
       <c r="B311" s="23" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C311" s="23" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D311" s="23"/>
       <c r="E311" s="23"/>
       <c r="F311" s="23" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
     </row>
     <row r="312" spans="1:6">
@@ -7104,10 +7104,10 @@
         <v>240</v>
       </c>
       <c r="B312" s="23" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C312" s="23" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D312" s="23"/>
       <c r="E312" s="23"/>
@@ -7120,10 +7120,10 @@
         <v>240</v>
       </c>
       <c r="B313" s="23" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C313" s="23" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D313" s="23"/>
       <c r="E313" s="23"/>
@@ -7136,10 +7136,10 @@
         <v>240</v>
       </c>
       <c r="B314" s="23" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C314" s="23" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D314" s="23"/>
       <c r="E314" s="23"/>
@@ -7152,10 +7152,10 @@
         <v>240</v>
       </c>
       <c r="B315" s="23" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C315" s="23" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D315" s="23"/>
       <c r="E315" s="23"/>
@@ -7168,15 +7168,15 @@
         <v>240</v>
       </c>
       <c r="B316" s="23" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C316" s="23" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D316" s="23"/>
       <c r="E316" s="23"/>
       <c r="F316" s="23" t="s">
-        <v>209</v>
+        <v>175</v>
       </c>
     </row>
     <row r="317" spans="1:6">
@@ -7184,15 +7184,15 @@
         <v>240</v>
       </c>
       <c r="B317" s="23" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C317" s="23" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D317" s="23"/>
       <c r="E317" s="23"/>
       <c r="F317" s="23" t="s">
-        <v>175</v>
+        <v>133</v>
       </c>
     </row>
     <row r="318" spans="1:6">
@@ -7200,15 +7200,15 @@
         <v>240</v>
       </c>
       <c r="B318" s="23" t="s">
-        <v>366</v>
+        <v>232</v>
       </c>
       <c r="C318" s="23" t="s">
-        <v>366</v>
+        <v>232</v>
       </c>
       <c r="D318" s="23"/>
       <c r="E318" s="23"/>
       <c r="F318" s="23" t="s">
-        <v>133</v>
+        <v>232</v>
       </c>
     </row>
     <row r="319" spans="1:6">
@@ -7216,15 +7216,15 @@
         <v>240</v>
       </c>
       <c r="B319" s="23" t="s">
-        <v>232</v>
+        <v>367</v>
       </c>
       <c r="C319" s="23" t="s">
-        <v>232</v>
+        <v>367</v>
       </c>
       <c r="D319" s="23"/>
       <c r="E319" s="23"/>
       <c r="F319" s="23" t="s">
-        <v>232</v>
+        <v>160</v>
       </c>
     </row>
     <row r="320" spans="1:6">
@@ -7232,10 +7232,10 @@
         <v>240</v>
       </c>
       <c r="B320" s="23" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C320" s="23" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D320" s="23"/>
       <c r="E320" s="23"/>
@@ -7248,10 +7248,10 @@
         <v>240</v>
       </c>
       <c r="B321" s="23" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C321" s="23" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D321" s="23"/>
       <c r="E321" s="23"/>
@@ -7264,15 +7264,15 @@
         <v>240</v>
       </c>
       <c r="B322" s="23" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C322" s="23" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D322" s="23"/>
       <c r="E322" s="23"/>
       <c r="F322" s="23" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
     </row>
     <row r="323" spans="1:6">
@@ -7280,15 +7280,15 @@
         <v>240</v>
       </c>
       <c r="B323" s="23" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C323" s="23" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D323" s="23"/>
       <c r="E323" s="23"/>
       <c r="F323" s="23" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
     </row>
     <row r="324" spans="1:6">
@@ -7296,10 +7296,10 @@
         <v>240</v>
       </c>
       <c r="B324" s="23" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C324" s="23" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D324" s="23"/>
       <c r="E324" s="23"/>
@@ -7312,10 +7312,10 @@
         <v>240</v>
       </c>
       <c r="B325" s="23" t="s">
-        <v>372</v>
+        <v>161</v>
       </c>
       <c r="C325" s="23" t="s">
-        <v>372</v>
+        <v>161</v>
       </c>
       <c r="D325" s="23"/>
       <c r="E325" s="23"/>
@@ -7328,10 +7328,10 @@
         <v>240</v>
       </c>
       <c r="B326" s="23" t="s">
-        <v>161</v>
+        <v>373</v>
       </c>
       <c r="C326" s="23" t="s">
-        <v>161</v>
+        <v>373</v>
       </c>
       <c r="D326" s="23"/>
       <c r="E326" s="23"/>
@@ -7344,15 +7344,15 @@
         <v>240</v>
       </c>
       <c r="B327" s="23" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C327" s="23" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D327" s="23"/>
       <c r="E327" s="23"/>
       <c r="F327" s="23" t="s">
-        <v>161</v>
+        <v>120</v>
       </c>
     </row>
     <row r="328" spans="1:6">
@@ -7360,15 +7360,15 @@
         <v>240</v>
       </c>
       <c r="B328" s="23" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C328" s="23" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D328" s="23"/>
       <c r="E328" s="23"/>
       <c r="F328" s="23" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="329" spans="1:6">
@@ -7376,10 +7376,10 @@
         <v>240</v>
       </c>
       <c r="B329" s="23" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C329" s="23" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D329" s="23"/>
       <c r="E329" s="23"/>
@@ -7392,10 +7392,10 @@
         <v>240</v>
       </c>
       <c r="B330" s="23" t="s">
-        <v>376</v>
+        <v>207</v>
       </c>
       <c r="C330" s="23" t="s">
-        <v>376</v>
+        <v>207</v>
       </c>
       <c r="D330" s="23"/>
       <c r="E330" s="23"/>
@@ -7408,15 +7408,15 @@
         <v>240</v>
       </c>
       <c r="B331" s="23" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C331" s="23" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D331" s="23"/>
       <c r="E331" s="23"/>
       <c r="F331" s="23" t="s">
-        <v>111</v>
+        <v>210</v>
       </c>
     </row>
     <row r="332" spans="1:6">
@@ -7424,15 +7424,15 @@
         <v>240</v>
       </c>
       <c r="B332" s="23" t="s">
-        <v>210</v>
+        <v>377</v>
       </c>
       <c r="C332" s="23" t="s">
-        <v>210</v>
+        <v>377</v>
       </c>
       <c r="D332" s="23"/>
       <c r="E332" s="23"/>
       <c r="F332" s="23" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="333" spans="1:6">
@@ -7440,10 +7440,10 @@
         <v>240</v>
       </c>
       <c r="B333" s="23" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C333" s="23" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D333" s="23"/>
       <c r="E333" s="23"/>
@@ -7456,10 +7456,10 @@
         <v>240</v>
       </c>
       <c r="B334" s="23" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C334" s="23" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D334" s="23"/>
       <c r="E334" s="23"/>
@@ -7472,15 +7472,15 @@
         <v>240</v>
       </c>
       <c r="B335" s="23" t="s">
-        <v>379</v>
+        <v>112</v>
       </c>
       <c r="C335" s="23" t="s">
-        <v>379</v>
+        <v>112</v>
       </c>
       <c r="D335" s="23"/>
       <c r="E335" s="23"/>
       <c r="F335" s="23" t="s">
-        <v>211</v>
+        <v>112</v>
       </c>
     </row>
     <row r="336" spans="1:6">
@@ -7488,15 +7488,15 @@
         <v>240</v>
       </c>
       <c r="B336" s="23" t="s">
-        <v>112</v>
+        <v>380</v>
       </c>
       <c r="C336" s="23" t="s">
-        <v>112</v>
+        <v>380</v>
       </c>
       <c r="D336" s="23"/>
       <c r="E336" s="23"/>
       <c r="F336" s="23" t="s">
-        <v>112</v>
+        <v>223</v>
       </c>
     </row>
     <row r="337" spans="1:6">
@@ -7504,10 +7504,10 @@
         <v>240</v>
       </c>
       <c r="B337" s="23" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C337" s="23" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D337" s="23"/>
       <c r="E337" s="23"/>
@@ -7520,10 +7520,10 @@
         <v>240</v>
       </c>
       <c r="B338" s="23" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C338" s="23" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D338" s="23"/>
       <c r="E338" s="23"/>
@@ -7536,15 +7536,15 @@
         <v>240</v>
       </c>
       <c r="B339" s="23" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C339" s="23" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D339" s="23"/>
       <c r="E339" s="23"/>
       <c r="F339" s="23" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
     </row>
     <row r="340" spans="1:6">
@@ -7552,15 +7552,15 @@
         <v>240</v>
       </c>
       <c r="B340" s="23" t="s">
-        <v>383</v>
+        <v>234</v>
       </c>
       <c r="C340" s="23" t="s">
-        <v>383</v>
+        <v>234</v>
       </c>
       <c r="D340" s="23"/>
       <c r="E340" s="23"/>
       <c r="F340" s="23" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="341" spans="1:6">
@@ -7568,15 +7568,15 @@
         <v>240</v>
       </c>
       <c r="B341" s="23" t="s">
-        <v>234</v>
+        <v>188</v>
       </c>
       <c r="C341" s="23" t="s">
-        <v>234</v>
+        <v>188</v>
       </c>
       <c r="D341" s="23"/>
       <c r="E341" s="23"/>
       <c r="F341" s="23" t="s">
-        <v>234</v>
+        <v>188</v>
       </c>
     </row>
     <row r="342" spans="1:6">
@@ -7584,15 +7584,15 @@
         <v>240</v>
       </c>
       <c r="B342" s="23" t="s">
-        <v>188</v>
+        <v>384</v>
       </c>
       <c r="C342" s="23" t="s">
-        <v>188</v>
+        <v>384</v>
       </c>
       <c r="D342" s="23"/>
       <c r="E342" s="23"/>
       <c r="F342" s="23" t="s">
-        <v>188</v>
+        <v>113</v>
       </c>
     </row>
     <row r="343" spans="1:6">
@@ -7600,10 +7600,10 @@
         <v>240</v>
       </c>
       <c r="B343" s="23" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C343" s="23" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D343" s="23"/>
       <c r="E343" s="23"/>
@@ -7616,10 +7616,10 @@
         <v>240</v>
       </c>
       <c r="B344" s="23" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C344" s="23" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D344" s="23"/>
       <c r="E344" s="23"/>
@@ -7632,15 +7632,15 @@
         <v>240</v>
       </c>
       <c r="B345" s="23" t="s">
-        <v>386</v>
+        <v>150</v>
       </c>
       <c r="C345" s="23" t="s">
-        <v>386</v>
+        <v>150</v>
       </c>
       <c r="D345" s="23"/>
       <c r="E345" s="23"/>
       <c r="F345" s="23" t="s">
-        <v>113</v>
+        <v>150</v>
       </c>
     </row>
     <row r="346" spans="1:6">
@@ -7648,10 +7648,10 @@
         <v>240</v>
       </c>
       <c r="B346" s="23" t="s">
-        <v>150</v>
+        <v>387</v>
       </c>
       <c r="C346" s="23" t="s">
-        <v>150</v>
+        <v>387</v>
       </c>
       <c r="D346" s="23"/>
       <c r="E346" s="23"/>
@@ -7664,15 +7664,15 @@
         <v>240</v>
       </c>
       <c r="B347" s="23" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C347" s="23" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D347" s="23"/>
       <c r="E347" s="23"/>
       <c r="F347" s="23" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
     </row>
     <row r="348" spans="1:6">
@@ -7680,10 +7680,10 @@
         <v>240</v>
       </c>
       <c r="B348" s="23" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C348" s="23" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D348" s="23"/>
       <c r="E348" s="23"/>
@@ -7696,10 +7696,10 @@
         <v>240</v>
       </c>
       <c r="B349" s="23" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C349" s="23" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D349" s="23"/>
       <c r="E349" s="23"/>
@@ -7712,10 +7712,10 @@
         <v>240</v>
       </c>
       <c r="B350" s="23" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C350" s="23" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D350" s="23"/>
       <c r="E350" s="23"/>
@@ -7728,15 +7728,15 @@
         <v>240</v>
       </c>
       <c r="B351" s="23" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C351" s="23" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D351" s="23"/>
       <c r="E351" s="23"/>
       <c r="F351" s="23" t="s">
-        <v>121</v>
+        <v>239</v>
       </c>
     </row>
     <row r="352" spans="1:6">
@@ -7744,10 +7744,10 @@
         <v>240</v>
       </c>
       <c r="B352" s="23" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C352" s="23" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D352" s="23"/>
       <c r="E352" s="23"/>
@@ -7760,10 +7760,10 @@
         <v>240</v>
       </c>
       <c r="B353" s="23" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C353" s="23" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D353" s="23"/>
       <c r="E353" s="23"/>
@@ -7776,10 +7776,10 @@
         <v>240</v>
       </c>
       <c r="B354" s="23" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C354" s="23" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D354" s="23"/>
       <c r="E354" s="23"/>
@@ -7792,10 +7792,10 @@
         <v>240</v>
       </c>
       <c r="B355" s="23" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C355" s="23" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D355" s="23"/>
       <c r="E355" s="23"/>
@@ -7808,10 +7808,10 @@
         <v>240</v>
       </c>
       <c r="B356" s="23" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C356" s="23" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D356" s="23"/>
       <c r="E356" s="23"/>
@@ -7824,10 +7824,10 @@
         <v>240</v>
       </c>
       <c r="B357" s="23" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C357" s="23" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D357" s="23"/>
       <c r="E357" s="23"/>
@@ -7840,10 +7840,10 @@
         <v>240</v>
       </c>
       <c r="B358" s="23" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C358" s="23" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D358" s="23"/>
       <c r="E358" s="23"/>
@@ -7856,10 +7856,10 @@
         <v>240</v>
       </c>
       <c r="B359" s="23" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C359" s="23" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D359" s="23"/>
       <c r="E359" s="23"/>
@@ -7872,10 +7872,10 @@
         <v>240</v>
       </c>
       <c r="B360" s="23" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C360" s="23" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D360" s="23"/>
       <c r="E360" s="23"/>
@@ -7888,15 +7888,15 @@
         <v>240</v>
       </c>
       <c r="B361" s="23" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C361" s="23" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D361" s="23"/>
       <c r="E361" s="23"/>
       <c r="F361" s="23" t="s">
-        <v>239</v>
+        <v>189</v>
       </c>
     </row>
     <row r="362" spans="1:6">
@@ -7904,10 +7904,10 @@
         <v>240</v>
       </c>
       <c r="B362" s="23" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C362" s="23" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D362" s="23"/>
       <c r="E362" s="23"/>
@@ -7920,10 +7920,10 @@
         <v>240</v>
       </c>
       <c r="B363" s="23" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C363" s="23" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D363" s="23"/>
       <c r="E363" s="23"/>
@@ -7936,15 +7936,15 @@
         <v>240</v>
       </c>
       <c r="B364" s="23" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C364" s="23" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D364" s="23"/>
       <c r="E364" s="23"/>
       <c r="F364" s="23" t="s">
-        <v>189</v>
+        <v>235</v>
       </c>
     </row>
     <row r="365" spans="1:6">
@@ -7952,10 +7952,10 @@
         <v>240</v>
       </c>
       <c r="B365" s="23" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C365" s="23" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D365" s="23"/>
       <c r="E365" s="23"/>
@@ -7968,10 +7968,10 @@
         <v>240</v>
       </c>
       <c r="B366" s="23" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C366" s="23" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D366" s="23"/>
       <c r="E366" s="23"/>
@@ -7984,10 +7984,10 @@
         <v>240</v>
       </c>
       <c r="B367" s="23" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C367" s="23" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D367" s="23"/>
       <c r="E367" s="23"/>
@@ -8000,10 +8000,10 @@
         <v>240</v>
       </c>
       <c r="B368" s="23" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C368" s="23" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D368" s="23"/>
       <c r="E368" s="23"/>
@@ -8016,15 +8016,15 @@
         <v>240</v>
       </c>
       <c r="B369" s="23" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C369" s="23" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D369" s="23"/>
       <c r="E369" s="23"/>
       <c r="F369" s="23" t="s">
-        <v>235</v>
+        <v>134</v>
       </c>
     </row>
     <row r="370" spans="1:6">
@@ -8032,15 +8032,15 @@
         <v>240</v>
       </c>
       <c r="B370" s="23" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C370" s="23" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D370" s="23"/>
       <c r="E370" s="23"/>
       <c r="F370" s="23" t="s">
-        <v>134</v>
+        <v>177</v>
       </c>
     </row>
     <row r="371" spans="1:6">
@@ -8048,15 +8048,15 @@
         <v>240</v>
       </c>
       <c r="B371" s="23" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C371" s="23" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D371" s="23"/>
       <c r="E371" s="23"/>
       <c r="F371" s="23" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
     </row>
     <row r="372" spans="1:6">
@@ -8064,15 +8064,15 @@
         <v>240</v>
       </c>
       <c r="B372" s="23" t="s">
-        <v>412</v>
+        <v>212</v>
       </c>
       <c r="C372" s="23" t="s">
-        <v>412</v>
+        <v>212</v>
       </c>
       <c r="D372" s="23"/>
       <c r="E372" s="23"/>
       <c r="F372" s="23" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
     </row>
     <row r="373" spans="1:6">
@@ -8080,15 +8080,15 @@
         <v>240</v>
       </c>
       <c r="B373" s="23" t="s">
-        <v>212</v>
+        <v>413</v>
       </c>
       <c r="C373" s="23" t="s">
-        <v>212</v>
+        <v>413</v>
       </c>
       <c r="D373" s="23"/>
       <c r="E373" s="23"/>
       <c r="F373" s="23" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="374" spans="1:6">
@@ -8096,15 +8096,15 @@
         <v>240</v>
       </c>
       <c r="B374" s="23" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C374" s="23" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D374" s="23"/>
       <c r="E374" s="23"/>
       <c r="F374" s="23" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="375" spans="1:6">
@@ -8112,15 +8112,15 @@
         <v>240</v>
       </c>
       <c r="B375" s="23" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C375" s="23" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D375" s="23"/>
       <c r="E375" s="23"/>
       <c r="F375" s="23" t="s">
-        <v>204</v>
+        <v>162</v>
       </c>
     </row>
     <row r="376" spans="1:6">
@@ -8128,15 +8128,15 @@
         <v>240</v>
       </c>
       <c r="B376" s="23" t="s">
-        <v>415</v>
+        <v>151</v>
       </c>
       <c r="C376" s="23" t="s">
-        <v>415</v>
+        <v>151</v>
       </c>
       <c r="D376" s="23"/>
       <c r="E376" s="23"/>
       <c r="F376" s="23" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="377" spans="1:6">
@@ -8144,15 +8144,15 @@
         <v>240</v>
       </c>
       <c r="B377" s="23" t="s">
-        <v>151</v>
+        <v>416</v>
       </c>
       <c r="C377" s="23" t="s">
-        <v>151</v>
+        <v>416</v>
       </c>
       <c r="D377" s="23"/>
       <c r="E377" s="23"/>
       <c r="F377" s="23" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="378" spans="1:6">
@@ -8160,10 +8160,10 @@
         <v>240</v>
       </c>
       <c r="B378" s="23" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C378" s="23" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D378" s="23"/>
       <c r="E378" s="23"/>
@@ -8176,15 +8176,15 @@
         <v>240</v>
       </c>
       <c r="B379" s="23" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C379" s="23" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D379" s="23"/>
       <c r="E379" s="23"/>
       <c r="F379" s="23" t="s">
-        <v>152</v>
+        <v>190</v>
       </c>
     </row>
     <row r="380" spans="1:6">
@@ -8192,15 +8192,15 @@
         <v>240</v>
       </c>
       <c r="B380" s="23" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C380" s="23" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D380" s="23"/>
       <c r="E380" s="23"/>
       <c r="F380" s="23" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
     </row>
     <row r="381" spans="1:6">
@@ -8208,15 +8208,15 @@
         <v>240</v>
       </c>
       <c r="B381" s="23" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C381" s="23" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D381" s="23"/>
       <c r="E381" s="23"/>
       <c r="F381" s="23" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
     </row>
     <row r="382" spans="1:6">
@@ -8224,15 +8224,15 @@
         <v>240</v>
       </c>
       <c r="B382" s="23" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C382" s="23" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D382" s="23"/>
       <c r="E382" s="23"/>
       <c r="F382" s="23" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="383" spans="1:6">
@@ -8240,15 +8240,15 @@
         <v>240</v>
       </c>
       <c r="B383" s="23" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C383" s="23" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D383" s="23"/>
       <c r="E383" s="23"/>
       <c r="F383" s="23" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
     </row>
     <row r="384" spans="1:6">
@@ -8256,10 +8256,10 @@
         <v>240</v>
       </c>
       <c r="B384" s="23" t="s">
-        <v>422</v>
+        <v>205</v>
       </c>
       <c r="C384" s="23" t="s">
-        <v>422</v>
+        <v>205</v>
       </c>
       <c r="D384" s="23"/>
       <c r="E384" s="23"/>
@@ -8272,15 +8272,15 @@
         <v>240</v>
       </c>
       <c r="B385" s="23" t="s">
-        <v>205</v>
+        <v>423</v>
       </c>
       <c r="C385" s="23" t="s">
-        <v>205</v>
+        <v>423</v>
       </c>
       <c r="D385" s="23"/>
       <c r="E385" s="23"/>
       <c r="F385" s="23" t="s">
-        <v>205</v>
+        <v>163</v>
       </c>
     </row>
     <row r="386" spans="1:6">
@@ -8288,15 +8288,15 @@
         <v>240</v>
       </c>
       <c r="B386" s="23" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C386" s="23" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D386" s="23"/>
       <c r="E386" s="23"/>
       <c r="F386" s="23" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="387" spans="1:6">
@@ -8304,15 +8304,15 @@
         <v>240</v>
       </c>
       <c r="B387" s="23" t="s">
-        <v>424</v>
+        <v>153</v>
       </c>
       <c r="C387" s="23" t="s">
-        <v>424</v>
+        <v>153</v>
       </c>
       <c r="D387" s="23"/>
       <c r="E387" s="23"/>
       <c r="F387" s="23" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="388" spans="1:6">
@@ -8320,15 +8320,15 @@
         <v>240</v>
       </c>
       <c r="B388" s="23" t="s">
-        <v>153</v>
+        <v>425</v>
       </c>
       <c r="C388" s="23" t="s">
-        <v>153</v>
+        <v>425</v>
       </c>
       <c r="D388" s="23"/>
       <c r="E388" s="23"/>
       <c r="F388" s="23" t="s">
-        <v>153</v>
+        <v>193</v>
       </c>
     </row>
     <row r="389" spans="1:6">
@@ -8336,15 +8336,15 @@
         <v>240</v>
       </c>
       <c r="B389" s="23" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C389" s="23" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D389" s="23"/>
       <c r="E389" s="23"/>
       <c r="F389" s="23" t="s">
-        <v>193</v>
+        <v>165</v>
       </c>
     </row>
     <row r="390" spans="1:6">
@@ -8352,15 +8352,15 @@
         <v>240</v>
       </c>
       <c r="B390" s="23" t="s">
-        <v>426</v>
+        <v>114</v>
       </c>
       <c r="C390" s="23" t="s">
-        <v>426</v>
+        <v>114</v>
       </c>
       <c r="D390" s="23"/>
       <c r="E390" s="23"/>
       <c r="F390" s="23" t="s">
-        <v>165</v>
+        <v>114</v>
       </c>
     </row>
     <row r="391" spans="1:6">
@@ -8368,15 +8368,15 @@
         <v>240</v>
       </c>
       <c r="B391" s="23" t="s">
-        <v>114</v>
+        <v>427</v>
       </c>
       <c r="C391" s="23" t="s">
-        <v>114</v>
+        <v>427</v>
       </c>
       <c r="D391" s="23"/>
       <c r="E391" s="23"/>
       <c r="F391" s="23" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="392" spans="1:6">
@@ -8384,10 +8384,10 @@
         <v>240</v>
       </c>
       <c r="B392" s="23" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C392" s="23" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D392" s="23"/>
       <c r="E392" s="23"/>
@@ -8400,15 +8400,15 @@
         <v>240</v>
       </c>
       <c r="B393" s="23" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C393" s="23" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D393" s="23"/>
       <c r="E393" s="23"/>
       <c r="F393" s="23" t="s">
-        <v>115</v>
+        <v>166</v>
       </c>
     </row>
     <row r="394" spans="1:6">
@@ -8416,15 +8416,15 @@
         <v>240</v>
       </c>
       <c r="B394" s="23" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C394" s="23" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D394" s="23"/>
       <c r="E394" s="23"/>
       <c r="F394" s="23" t="s">
-        <v>166</v>
+        <v>224</v>
       </c>
     </row>
     <row r="395" spans="1:6">
@@ -8432,10 +8432,10 @@
         <v>240</v>
       </c>
       <c r="B395" s="23" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C395" s="23" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D395" s="23"/>
       <c r="E395" s="23"/>
@@ -8448,15 +8448,15 @@
         <v>240</v>
       </c>
       <c r="B396" s="23" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C396" s="23" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D396" s="23"/>
       <c r="E396" s="23"/>
       <c r="F396" s="23" t="s">
-        <v>224</v>
+        <v>144</v>
       </c>
     </row>
     <row r="397" spans="1:6">
@@ -8464,15 +8464,15 @@
         <v>240</v>
       </c>
       <c r="B397" s="23" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C397" s="23" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D397" s="23"/>
       <c r="E397" s="23"/>
       <c r="F397" s="23" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="398" spans="1:6">
@@ -8480,15 +8480,15 @@
         <v>240</v>
       </c>
       <c r="B398" s="23" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C398" s="23" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D398" s="23"/>
       <c r="E398" s="23"/>
       <c r="F398" s="23" t="s">
-        <v>135</v>
+        <v>225</v>
       </c>
     </row>
     <row r="399" spans="1:6">
@@ -8496,15 +8496,15 @@
         <v>240</v>
       </c>
       <c r="B399" s="23" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C399" s="23" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D399" s="23"/>
       <c r="E399" s="23"/>
       <c r="F399" s="23" t="s">
-        <v>225</v>
+        <v>194</v>
       </c>
     </row>
     <row r="400" spans="1:6">
@@ -8512,10 +8512,10 @@
         <v>240</v>
       </c>
       <c r="B400" s="23" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C400" s="23" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D400" s="23"/>
       <c r="E400" s="23"/>
@@ -8528,10 +8528,10 @@
         <v>240</v>
       </c>
       <c r="B401" s="23" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C401" s="23" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D401" s="23"/>
       <c r="E401" s="23"/>
@@ -8544,10 +8544,10 @@
         <v>240</v>
       </c>
       <c r="B402" s="23" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C402" s="23" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D402" s="23"/>
       <c r="E402" s="23"/>
@@ -8560,15 +8560,15 @@
         <v>240</v>
       </c>
       <c r="B403" s="23" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C403" s="23" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D403" s="23"/>
       <c r="E403" s="23"/>
       <c r="F403" s="23" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
     </row>
     <row r="404" spans="1:6">
@@ -8576,10 +8576,10 @@
         <v>240</v>
       </c>
       <c r="B404" s="23" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C404" s="23" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D404" s="23"/>
       <c r="E404" s="23"/>
@@ -8592,10 +8592,10 @@
         <v>240</v>
       </c>
       <c r="B405" s="23" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C405" s="23" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D405" s="23"/>
       <c r="E405" s="23"/>
@@ -8608,10 +8608,10 @@
         <v>240</v>
       </c>
       <c r="B406" s="23" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C406" s="23" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D406" s="23"/>
       <c r="E406" s="23"/>
@@ -8624,15 +8624,15 @@
         <v>240</v>
       </c>
       <c r="B407" s="23" t="s">
-        <v>442</v>
+        <v>154</v>
       </c>
       <c r="C407" s="23" t="s">
-        <v>442</v>
+        <v>154</v>
       </c>
       <c r="D407" s="23"/>
       <c r="E407" s="23"/>
       <c r="F407" s="23" t="s">
-        <v>213</v>
+        <v>154</v>
       </c>
     </row>
     <row r="408" spans="1:6">
@@ -8640,10 +8640,10 @@
         <v>240</v>
       </c>
       <c r="B408" s="23" t="s">
-        <v>154</v>
+        <v>443</v>
       </c>
       <c r="C408" s="23" t="s">
-        <v>154</v>
+        <v>443</v>
       </c>
       <c r="D408" s="23"/>
       <c r="E408" s="23"/>
@@ -8656,15 +8656,15 @@
         <v>240</v>
       </c>
       <c r="B409" s="23" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C409" s="23" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D409" s="23"/>
       <c r="E409" s="23"/>
       <c r="F409" s="23" t="s">
-        <v>154</v>
+        <v>122</v>
       </c>
     </row>
     <row r="410" spans="1:6">
@@ -8672,10 +8672,10 @@
         <v>240</v>
       </c>
       <c r="B410" s="23" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C410" s="23" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D410" s="23"/>
       <c r="E410" s="23"/>
@@ -8688,15 +8688,15 @@
         <v>240</v>
       </c>
       <c r="B411" s="23" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C411" s="23" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D411" s="23"/>
       <c r="E411" s="23"/>
       <c r="F411" s="23" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
     </row>
     <row r="412" spans="1:6">
@@ -8704,15 +8704,15 @@
         <v>240</v>
       </c>
       <c r="B412" s="23" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C412" s="23" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D412" s="23"/>
       <c r="E412" s="23"/>
       <c r="F412" s="23" t="s">
-        <v>136</v>
+        <v>214</v>
       </c>
     </row>
     <row r="413" spans="1:6">
@@ -8720,10 +8720,10 @@
         <v>240</v>
       </c>
       <c r="B413" s="23" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C413" s="23" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D413" s="23"/>
       <c r="E413" s="23"/>
@@ -8736,10 +8736,10 @@
         <v>240</v>
       </c>
       <c r="B414" s="23" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C414" s="23" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D414" s="23"/>
       <c r="E414" s="23"/>
@@ -8752,10 +8752,10 @@
         <v>240</v>
       </c>
       <c r="B415" s="23" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C415" s="23" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D415" s="23"/>
       <c r="E415" s="23"/>
@@ -8768,15 +8768,15 @@
         <v>240</v>
       </c>
       <c r="B416" s="23" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C416" s="23" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D416" s="23"/>
       <c r="E416" s="23"/>
       <c r="F416" s="23" t="s">
-        <v>214</v>
+        <v>167</v>
       </c>
     </row>
     <row r="417" spans="1:6">
@@ -8784,10 +8784,10 @@
         <v>240</v>
       </c>
       <c r="B417" s="23" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C417" s="23" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D417" s="23"/>
       <c r="E417" s="23"/>
@@ -8800,10 +8800,10 @@
         <v>240</v>
       </c>
       <c r="B418" s="23" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C418" s="23" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D418" s="23"/>
       <c r="E418" s="23"/>
@@ -8816,15 +8816,15 @@
         <v>240</v>
       </c>
       <c r="B419" s="23" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C419" s="23" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D419" s="23"/>
       <c r="E419" s="23"/>
       <c r="F419" s="23" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
     </row>
     <row r="420" spans="1:6">
@@ -8832,10 +8832,10 @@
         <v>240</v>
       </c>
       <c r="B420" s="23" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C420" s="23" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D420" s="23"/>
       <c r="E420" s="23"/>
@@ -8848,10 +8848,10 @@
         <v>240</v>
       </c>
       <c r="B421" s="23" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C421" s="23" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D421" s="23"/>
       <c r="E421" s="23"/>
@@ -8864,10 +8864,10 @@
         <v>240</v>
       </c>
       <c r="B422" s="23" t="s">
-        <v>456</v>
+        <v>179</v>
       </c>
       <c r="C422" s="23" t="s">
-        <v>456</v>
+        <v>179</v>
       </c>
       <c r="D422" s="23"/>
       <c r="E422" s="23"/>
@@ -8880,15 +8880,15 @@
         <v>240</v>
       </c>
       <c r="B423" s="23" t="s">
-        <v>179</v>
+        <v>457</v>
       </c>
       <c r="C423" s="23" t="s">
-        <v>179</v>
+        <v>457</v>
       </c>
       <c r="D423" s="23"/>
       <c r="E423" s="23"/>
       <c r="F423" s="23" t="s">
-        <v>179</v>
+        <v>236</v>
       </c>
     </row>
     <row r="424" spans="1:6">
@@ -8896,15 +8896,15 @@
         <v>240</v>
       </c>
       <c r="B424" s="23" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C424" s="23" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D424" s="23"/>
       <c r="E424" s="23"/>
       <c r="F424" s="23" t="s">
-        <v>236</v>
+        <v>155</v>
       </c>
     </row>
     <row r="425" spans="1:6">
@@ -8912,15 +8912,15 @@
         <v>240</v>
       </c>
       <c r="B425" s="23" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C425" s="23" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D425" s="23"/>
       <c r="E425" s="23"/>
       <c r="F425" s="23" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
     </row>
     <row r="426" spans="1:6">
@@ -8928,10 +8928,10 @@
         <v>240</v>
       </c>
       <c r="B426" s="23" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C426" s="23" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D426" s="23"/>
       <c r="E426" s="23"/>
@@ -8944,15 +8944,15 @@
         <v>240</v>
       </c>
       <c r="B427" s="23" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C427" s="23" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D427" s="23"/>
       <c r="E427" s="23"/>
       <c r="F427" s="23" t="s">
-        <v>180</v>
+        <v>206</v>
       </c>
     </row>
     <row r="428" spans="1:6">
@@ -8960,15 +8960,15 @@
         <v>240</v>
       </c>
       <c r="B428" s="23" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C428" s="23" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D428" s="23"/>
       <c r="E428" s="23"/>
       <c r="F428" s="23" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
     </row>
     <row r="429" spans="1:6">
@@ -8976,10 +8976,10 @@
         <v>240</v>
       </c>
       <c r="B429" s="23" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C429" s="23" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D429" s="23"/>
       <c r="E429" s="23"/>
@@ -8992,10 +8992,10 @@
         <v>240</v>
       </c>
       <c r="B430" s="23" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C430" s="23" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D430" s="23"/>
       <c r="E430" s="23"/>
@@ -9008,15 +9008,15 @@
         <v>240</v>
       </c>
       <c r="B431" s="23" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C431" s="23" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D431" s="23"/>
       <c r="E431" s="23"/>
       <c r="F431" s="23" t="s">
-        <v>181</v>
+        <v>123</v>
       </c>
     </row>
     <row r="432" spans="1:6">
@@ -9024,15 +9024,15 @@
         <v>240</v>
       </c>
       <c r="B432" s="23" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C432" s="23" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D432" s="23"/>
       <c r="E432" s="23"/>
       <c r="F432" s="23" t="s">
-        <v>123</v>
+        <v>195</v>
       </c>
     </row>
     <row r="433" spans="1:6">
@@ -9040,15 +9040,15 @@
         <v>240</v>
       </c>
       <c r="B433" s="23" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C433" s="23" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D433" s="23"/>
       <c r="E433" s="23"/>
       <c r="F433" s="23" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="434" spans="1:6">
@@ -9056,15 +9056,15 @@
         <v>240</v>
       </c>
       <c r="B434" s="23" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C434" s="23" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D434" s="23"/>
       <c r="E434" s="23"/>
       <c r="F434" s="23" t="s">
-        <v>196</v>
+        <v>116</v>
       </c>
     </row>
     <row r="435" spans="1:6">
@@ -9072,15 +9072,15 @@
         <v>240</v>
       </c>
       <c r="B435" s="23" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C435" s="23" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D435" s="23"/>
       <c r="E435" s="23"/>
       <c r="F435" s="23" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="436" spans="1:6">
@@ -9088,15 +9088,15 @@
         <v>240</v>
       </c>
       <c r="B436" s="23" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C436" s="23" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D436" s="23"/>
       <c r="E436" s="23"/>
       <c r="F436" s="23" t="s">
-        <v>124</v>
+        <v>168</v>
       </c>
     </row>
     <row r="437" spans="1:6">
@@ -9104,15 +9104,15 @@
         <v>240</v>
       </c>
       <c r="B437" s="23" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C437" s="23" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D437" s="23"/>
       <c r="E437" s="23"/>
       <c r="F437" s="23" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="438" spans="1:6">
@@ -9120,15 +9120,15 @@
         <v>240</v>
       </c>
       <c r="B438" s="23" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C438" s="23" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D438" s="23"/>
       <c r="E438" s="23"/>
       <c r="F438" s="23" t="s">
-        <v>156</v>
+        <v>207</v>
       </c>
     </row>
     <row r="439" spans="1:6">
@@ -9136,10 +9136,10 @@
         <v>240</v>
       </c>
       <c r="B439" s="23" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C439" s="23" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D439" s="23"/>
       <c r="E439" s="23"/>
@@ -9152,30 +9152,14 @@
         <v>240</v>
       </c>
       <c r="B440" s="23" t="s">
-        <v>473</v>
+        <v>237</v>
       </c>
       <c r="C440" s="23" t="s">
-        <v>473</v>
+        <v>237</v>
       </c>
       <c r="D440" s="23"/>
       <c r="E440" s="23"/>
       <c r="F440" s="23" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="441" spans="1:6">
-      <c r="A441" s="26" t="s">
-        <v>240</v>
-      </c>
-      <c r="B441" s="23" t="s">
-        <v>237</v>
-      </c>
-      <c r="C441" s="23" t="s">
-        <v>237</v>
-      </c>
-      <c r="D441" s="23"/>
-      <c r="E441" s="23"/>
-      <c r="F441" s="23" t="s">
         <v>237</v>
       </c>
     </row>
